--- a/Natural-Questions/rewriting-experiment-results.xlsx
+++ b/Natural-Questions/rewriting-experiment-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__2024\presentations\CASCON-2024\NaturalQuestions\new_answers_2024-09-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46955C65-9611-431D-9F5F-9B7C797F13A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AD66BA-7EA4-447F-93C2-823B5018C29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="528" yWindow="732" windowWidth="22512" windowHeight="12588" activeTab="2" xr2:uid="{3C46AE5D-320A-49FE-9901-F557C927336C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4543" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4381" uniqueCount="778">
   <si>
     <t>example_id</t>
   </si>
@@ -2406,9 +2406,6 @@
     <t>the equator</t>
   </si>
   <si>
-    <t>orbit</t>
-  </si>
-  <si>
     <t># Earth's rotation  
 Earth's rotation is the rotation of Planet Earth around its own axis. Earth rotates eastward, in prograde motion. As viewed from the north pole star, Polaris, Earth turns counter clockwise around its axis and its rotation around the sun is also counter clockwise.  
 The North Pole, also known as the Geographic North Pole or Terrestrial North Pole, is the point in the Northern Hemisphere where Earth's axis of rotation meets its surface. This point is distinct from Earth's North Magnetic Pole. The South Pole is the other point where Earth's axis of rotation intersects its surface, in Antarctica.  
@@ -2667,10 +2664,19 @@
     <t>Relevant article (after 23)</t>
   </si>
   <si>
-    <t>Run-time answer (after 23)</t>
-  </si>
-  <si>
-    <t>Score (after 23)</t>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Expected incorrect</t>
+  </si>
+  <si>
+    <t>Multiple right answers</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Score (after)</t>
   </si>
 </sst>
 </file>
@@ -8092,7 +8098,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>12</v>
@@ -8144,7 +8150,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>24</v>
@@ -8222,7 +8228,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>43</v>
@@ -8248,7 +8254,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>49</v>
@@ -8326,7 +8332,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>66</v>
@@ -8352,7 +8358,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>70</v>
@@ -8378,7 +8384,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>75</v>
@@ -8439,7 +8445,7 @@
         <v>87</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H15" s="6">
         <v>88</v>
@@ -8491,7 +8497,7 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H17" s="6">
         <v>50</v>
@@ -8508,7 +8514,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>102</v>
@@ -8560,7 +8566,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>112</v>
@@ -8612,7 +8618,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>121</v>
@@ -8716,7 +8722,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>140</v>
@@ -8725,7 +8731,7 @@
         <v>141</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H26" s="6">
         <v>49</v>
@@ -8751,7 +8757,7 @@
         <v>145</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H27" s="6">
         <v>87</v>
@@ -8794,7 +8800,7 @@
         <v>41</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>152</v>
@@ -8803,7 +8809,7 @@
         <v>153</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H29" s="6">
         <v>97</v>
@@ -8846,7 +8852,7 @@
         <v>34</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>160</v>
@@ -8855,7 +8861,7 @@
         <v>161</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H31" s="6">
         <v>52</v>
@@ -8872,7 +8878,7 @@
         <v>41</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>164</v>
@@ -8881,7 +8887,7 @@
         <v>165</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H32" s="6">
         <v>100</v>
@@ -8950,7 +8956,7 @@
         <v>41</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>178</v>
@@ -8959,7 +8965,7 @@
         <v>179</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H35" s="6">
         <v>99</v>
@@ -9106,7 +9112,7 @@
         <v>201</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>203</v>
@@ -9115,7 +9121,7 @@
         <v>204</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H41" s="6">
         <v>39</v>
@@ -9132,7 +9138,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>207</v>
@@ -9158,7 +9164,7 @@
         <v>22</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>209</v>
@@ -9184,7 +9190,7 @@
         <v>28</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>213</v>
@@ -9210,7 +9216,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>217</v>
@@ -9219,7 +9225,7 @@
         <v>218</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H45" s="6">
         <v>84</v>
@@ -9236,7 +9242,7 @@
         <v>34</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>222</v>
@@ -9245,7 +9251,7 @@
         <v>223</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H46" s="6">
         <v>81</v>
@@ -9288,7 +9294,7 @@
         <v>10</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>229</v>
@@ -9297,7 +9303,7 @@
         <v>230</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H48" s="6">
         <v>70</v>
@@ -9314,7 +9320,7 @@
         <v>68</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>234</v>
@@ -9323,7 +9329,7 @@
         <v>235</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H49" s="6">
         <v>68</v>
@@ -9340,7 +9346,7 @@
         <v>22</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>238</v>
@@ -9366,7 +9372,7 @@
         <v>41</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>241</v>
@@ -9375,7 +9381,7 @@
         <v>242</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H51" s="6">
         <v>69</v>
@@ -9470,7 +9476,7 @@
         <v>68</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>257</v>
@@ -9496,7 +9502,7 @@
         <v>41</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>260</v>
@@ -9505,7 +9511,7 @@
         <v>242</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H56" s="6">
         <v>69</v>
@@ -9548,7 +9554,7 @@
         <v>47</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>265</v>
@@ -9557,7 +9563,7 @@
         <v>44</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H58" s="6">
         <v>100</v>
@@ -9600,7 +9606,7 @@
         <v>22</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>272</v>
@@ -9609,7 +9615,7 @@
         <v>273</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H60" s="6">
         <v>92</v>
@@ -9704,7 +9710,7 @@
         <v>41</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>289</v>
@@ -9782,7 +9788,7 @@
         <v>10</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>301</v>
@@ -9834,7 +9840,7 @@
         <v>201</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>310</v>
@@ -9860,7 +9866,7 @@
         <v>41</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>314</v>
@@ -9912,7 +9918,7 @@
         <v>47</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>320</v>
@@ -9938,7 +9944,7 @@
         <v>47</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>323</v>
@@ -9947,7 +9953,7 @@
         <v>324</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H73" s="6">
         <v>47</v>
@@ -10094,7 +10100,7 @@
         <v>10</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>348</v>
@@ -10103,7 +10109,7 @@
         <v>349</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H79" s="6">
         <v>56</v>
@@ -10120,7 +10126,7 @@
         <v>41</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>351</v>
@@ -10224,7 +10230,7 @@
         <v>68</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>363</v>
@@ -10250,7 +10256,7 @@
         <v>47</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>365</v>
@@ -10259,7 +10265,7 @@
         <v>366</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H85" s="6">
         <v>74</v>
@@ -10276,7 +10282,7 @@
         <v>10</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>368</v>
@@ -10285,7 +10291,7 @@
         <v>302</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H86" s="6">
         <v>39</v>
@@ -10302,7 +10308,7 @@
         <v>28</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>371</v>
@@ -10311,7 +10317,7 @@
         <v>372</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H87" s="6">
         <v>100</v>
@@ -10328,7 +10334,7 @@
         <v>41</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>375</v>
@@ -10441,7 +10447,7 @@
         <v>389</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H92" s="6">
         <v>84</v>
@@ -10588,7 +10594,7 @@
         <v>47</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>408</v>
@@ -10640,7 +10646,7 @@
         <v>41</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>415</v>
@@ -10649,7 +10655,7 @@
         <v>416</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H100" s="6">
         <v>100</v>
@@ -10666,7 +10672,7 @@
         <v>41</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>419</v>
@@ -10675,7 +10681,7 @@
         <v>420</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H101" s="6">
         <v>82</v>
@@ -10692,7 +10698,7 @@
         <v>10</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>422</v>
@@ -10718,7 +10724,7 @@
         <v>47</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>426</v>
@@ -10727,7 +10733,7 @@
         <v>50</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H103" s="6">
         <v>36</v>
@@ -10770,7 +10776,7 @@
         <v>41</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>432</v>
@@ -10796,7 +10802,7 @@
         <v>10</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>434</v>
@@ -10822,7 +10828,7 @@
         <v>47</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>437</v>
@@ -10848,7 +10854,7 @@
         <v>10</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>443</v>
@@ -10857,7 +10863,7 @@
         <v>444</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H108" s="6">
         <v>43</v>
@@ -10874,7 +10880,7 @@
         <v>10</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>447</v>
@@ -10900,7 +10906,7 @@
         <v>41</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>451</v>
@@ -10926,7 +10932,7 @@
         <v>41</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>454</v>
@@ -10952,7 +10958,7 @@
         <v>41</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>456</v>
@@ -10978,7 +10984,7 @@
         <v>47</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>458</v>
@@ -11004,7 +11010,7 @@
         <v>47</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>462</v>
@@ -11030,7 +11036,7 @@
         <v>41</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>465</v>
@@ -11056,7 +11062,7 @@
         <v>41</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>467</v>
@@ -11108,7 +11114,7 @@
         <v>10</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>473</v>
@@ -11117,7 +11123,7 @@
         <v>13</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H118" s="6">
         <v>30</v>
@@ -11134,7 +11140,7 @@
         <v>10</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>475</v>
@@ -11160,7 +11166,7 @@
         <v>47</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>477</v>
@@ -11186,7 +11192,7 @@
         <v>47</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>480</v>
@@ -11316,7 +11322,7 @@
         <v>41</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>494</v>
@@ -11325,7 +11331,7 @@
         <v>495</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H126" s="6">
         <v>87</v>
@@ -11342,7 +11348,7 @@
         <v>22</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>498</v>
@@ -11394,7 +11400,7 @@
         <v>41</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>506</v>
@@ -11498,7 +11504,7 @@
         <v>28</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>519</v>
@@ -11550,7 +11556,7 @@
         <v>68</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>524</v>
@@ -11559,7 +11565,7 @@
         <v>525</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H135" s="6">
         <v>81</v>
@@ -11628,7 +11634,7 @@
         <v>201</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E138" s="6" t="s">
         <v>531</v>
@@ -11654,7 +11660,7 @@
         <v>41</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>535</v>
@@ -11680,7 +11686,7 @@
         <v>22</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E140" s="6" t="s">
         <v>539</v>
@@ -11689,7 +11695,7 @@
         <v>540</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H140" s="6">
         <v>97</v>
@@ -11706,7 +11712,7 @@
         <v>10</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E141" s="6" t="s">
         <v>543</v>
@@ -11715,7 +11721,7 @@
         <v>544</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H141" s="6">
         <v>40</v>
@@ -11862,7 +11868,7 @@
         <v>41</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E147" s="6" t="s">
         <v>562</v>
@@ -11871,7 +11877,7 @@
         <v>153</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H147" s="6">
         <v>97</v>
@@ -11888,7 +11894,7 @@
         <v>47</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E148" s="6" t="s">
         <v>565</v>
@@ -11914,7 +11920,7 @@
         <v>41</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E149" s="6" t="s">
         <v>569</v>
@@ -11992,7 +11998,7 @@
         <v>10</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E152" s="6" t="s">
         <v>576</v>
@@ -12027,7 +12033,7 @@
         <v>579</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H153" s="6">
         <v>49</v>
@@ -12122,7 +12128,7 @@
         <v>41</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>592</v>
@@ -12174,7 +12180,7 @@
         <v>10</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>598</v>
@@ -12226,7 +12232,7 @@
         <v>10</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>603</v>
@@ -12278,7 +12284,7 @@
         <v>47</v>
       </c>
       <c r="D163" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E163" s="6" t="s">
         <v>609</v>
@@ -12287,7 +12293,7 @@
         <v>610</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H163" s="6">
         <v>60</v>
@@ -12304,7 +12310,7 @@
         <v>41</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E164" s="6" t="s">
         <v>613</v>
@@ -12313,7 +12319,7 @@
         <v>153</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H164" s="6">
         <v>97</v>
@@ -12356,7 +12362,7 @@
         <v>41</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>619</v>
@@ -12365,7 +12371,7 @@
         <v>324</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H166" s="6">
         <v>72</v>
@@ -12408,7 +12414,7 @@
         <v>10</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>623</v>
@@ -12486,7 +12492,7 @@
         <v>10</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>634</v>
@@ -12495,7 +12501,7 @@
         <v>544</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H171" s="6">
         <v>40</v>
@@ -12547,7 +12553,7 @@
         <v>643</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H173" s="6">
         <v>100</v>
@@ -12616,7 +12622,7 @@
         <v>22</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>653</v>
@@ -12625,7 +12631,7 @@
         <v>525</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H176" s="6">
         <v>81</v>
@@ -12642,7 +12648,7 @@
         <v>41</v>
       </c>
       <c r="D177" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E177" s="6" t="s">
         <v>655</v>
@@ -12694,7 +12700,7 @@
         <v>10</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E179" s="6" t="s">
         <v>661</v>
@@ -12703,7 +12709,7 @@
         <v>544</v>
       </c>
       <c r="G179" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H179" s="6">
         <v>40</v>
@@ -12720,7 +12726,7 @@
         <v>41</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E180" s="6" t="s">
         <v>664</v>
@@ -12772,7 +12778,7 @@
         <v>47</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E182" s="6" t="s">
         <v>669</v>
@@ -12798,7 +12804,7 @@
         <v>10</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E183" s="6" t="s">
         <v>672</v>
@@ -12807,7 +12813,7 @@
         <v>544</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H183" s="6">
         <v>40</v>
@@ -12824,7 +12830,7 @@
         <v>41</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>674</v>
@@ -12850,7 +12856,7 @@
         <v>28</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E185" s="6" t="s">
         <v>677</v>
@@ -12876,7 +12882,7 @@
         <v>47</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E186" s="6" t="s">
         <v>679</v>
@@ -12885,7 +12891,7 @@
         <v>680</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H186" s="6">
         <v>100</v>
@@ -12902,7 +12908,7 @@
         <v>47</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>683</v>
@@ -13005,10 +13011,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309F6F34-63BF-44B4-9A9D-85D4B401436B}">
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J168" sqref="J168"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13021,14 +13027,16 @@
     <col min="6" max="6" width="27.89453125" style="2" customWidth="1"/>
     <col min="7" max="7" width="25.26171875" style="2" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" customWidth="1"/>
-    <col min="9" max="10" width="26.5234375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.89453125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="15.20703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="31.41796875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="8.83984375" style="2"/>
+    <col min="9" max="9" width="26.5234375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.89453125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.20703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="17.41796875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="21.26171875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="31.41796875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13036,10 +13044,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -13048,28 +13056,31 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>472</v>
       </c>
@@ -13092,22 +13103,19 @@
         <v>258</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="K2" s="2">
+        <v>702</v>
+      </c>
+      <c r="J2" s="2">
         <v>22</v>
       </c>
-      <c r="L2" s="6">
+      <c r="K2" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>199</v>
       </c>
@@ -13130,22 +13138,19 @@
         <v>205</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="K3" s="2">
+        <v>705</v>
+      </c>
+      <c r="J3" s="2">
         <v>30</v>
       </c>
-      <c r="L3" s="6">
+      <c r="K3" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>367</v>
       </c>
@@ -13168,25 +13173,25 @@
         <v>369</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="K4" s="2">
+        <v>706</v>
+      </c>
+      <c r="J4" s="2">
         <v>28</v>
       </c>
-      <c r="L4" s="6">
+      <c r="K4" s="6">
         <v>39</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="L4" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>139</v>
       </c>
@@ -13209,25 +13214,25 @@
         <v>142</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="K5" s="2">
+        <v>709</v>
+      </c>
+      <c r="J5" s="2">
         <v>59</v>
       </c>
-      <c r="L5" s="6">
+      <c r="K5" s="6">
         <v>49</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="L5" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>346</v>
       </c>
@@ -13250,23 +13255,20 @@
         <v>258</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="K6" s="2">
+        <v>715</v>
+      </c>
+      <c r="J6" s="2">
         <v>9</v>
       </c>
-      <c r="L6" s="6">
+      <c r="K6" s="6">
         <v>56</v>
       </c>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>421</v>
       </c>
@@ -13289,22 +13291,19 @@
         <v>424</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J7" s="2">
         <v>44</v>
       </c>
-      <c r="L7" s="6">
+      <c r="K7" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>240</v>
       </c>
@@ -13327,22 +13326,19 @@
         <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="K8" s="2">
+        <v>719</v>
+      </c>
+      <c r="J8" s="2">
         <v>30</v>
       </c>
-      <c r="L8" s="6">
+      <c r="K8" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>259</v>
       </c>
@@ -13365,22 +13361,19 @@
         <v>154</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="K9" s="2">
+        <v>719</v>
+      </c>
+      <c r="J9" s="2">
         <v>40</v>
       </c>
-      <c r="L9" s="6">
+      <c r="K9" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>228</v>
       </c>
@@ -13403,22 +13396,19 @@
         <v>231</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="K10" s="2">
+        <v>720</v>
+      </c>
+      <c r="J10" s="2">
         <v>50</v>
       </c>
-      <c r="L10" s="6">
+      <c r="K10" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>220</v>
       </c>
@@ -13441,22 +13431,19 @@
         <v>224</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="K11" s="2">
+        <v>713</v>
+      </c>
+      <c r="J11" s="2">
         <v>43</v>
       </c>
-      <c r="L11" s="6">
+      <c r="K11" s="6">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>418</v>
       </c>
@@ -13479,22 +13466,19 @@
         <v>166</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="K12" s="2">
+        <v>726</v>
+      </c>
+      <c r="J12" s="2">
         <v>62</v>
       </c>
-      <c r="L12" s="6">
+      <c r="K12" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>216</v>
       </c>
@@ -13517,22 +13501,19 @@
         <v>219</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="K13" s="2">
-        <v>41</v>
-      </c>
-      <c r="L13" s="6">
+        <v>727</v>
+      </c>
+      <c r="J13" s="2">
+        <v>41</v>
+      </c>
+      <c r="K13" s="6">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>271</v>
       </c>
@@ -13555,25 +13536,22 @@
         <v>274</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>732</v>
-      </c>
-      <c r="K14" s="2">
+        <v>731</v>
+      </c>
+      <c r="J14" s="2">
         <v>74</v>
       </c>
-      <c r="L14" s="6">
+      <c r="K14" s="6">
         <v>92</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="N14" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>654</v>
       </c>
@@ -13596,22 +13574,19 @@
         <v>496</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="J15" s="2">
         <v>93</v>
       </c>
-      <c r="L15" s="6">
+      <c r="K15" s="6">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>151</v>
       </c>
@@ -13634,22 +13609,19 @@
         <v>154</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="K16" s="2">
+        <v>719</v>
+      </c>
+      <c r="J16" s="2">
         <v>35</v>
       </c>
-      <c r="L16" s="6">
+      <c r="K16" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>561</v>
       </c>
@@ -13672,22 +13644,19 @@
         <v>154</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="K17" s="2">
+        <v>719</v>
+      </c>
+      <c r="J17" s="2">
         <v>35</v>
       </c>
-      <c r="L17" s="6">
+      <c r="K17" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
         <v>612</v>
       </c>
@@ -13710,22 +13679,19 @@
         <v>154</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="K18" s="2">
+        <v>719</v>
+      </c>
+      <c r="J18" s="2">
         <v>35</v>
       </c>
-      <c r="L18" s="6">
+      <c r="K18" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>176</v>
       </c>
@@ -13748,22 +13714,19 @@
         <v>180</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>733</v>
-      </c>
-      <c r="K19" s="2">
+        <v>732</v>
+      </c>
+      <c r="J19" s="2">
         <v>25</v>
       </c>
-      <c r="L19" s="6">
+      <c r="K19" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>163</v>
       </c>
@@ -13786,22 +13749,19 @@
         <v>166</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="K20" s="2">
+        <v>726</v>
+      </c>
+      <c r="J20" s="2">
         <v>67</v>
       </c>
-      <c r="L20" s="6">
+      <c r="K20" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>256</v>
       </c>
@@ -13824,25 +13784,22 @@
         <v>258</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I21" s="6">
         <v>1936</v>
       </c>
-      <c r="J21" s="6">
-        <v>1936</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="J21" s="2">
         <v>13</v>
       </c>
-      <c r="L21" s="6">
+      <c r="K21" s="6">
         <v>100</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="N21" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
         <v>263</v>
       </c>
@@ -13865,22 +13822,19 @@
         <v>51</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="K22" s="2">
+        <v>703</v>
+      </c>
+      <c r="J22" s="2">
         <v>47</v>
       </c>
-      <c r="L22" s="6">
+      <c r="K22" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>370</v>
       </c>
@@ -13903,25 +13857,22 @@
         <v>373</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="K23" s="2">
+        <v>735</v>
+      </c>
+      <c r="J23" s="2">
         <v>48</v>
       </c>
-      <c r="L23" s="6">
+      <c r="K23" s="6">
         <v>100</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="N23" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>641</v>
       </c>
@@ -13944,22 +13895,19 @@
         <v>258</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="K24" s="2">
+        <v>733</v>
+      </c>
+      <c r="J24" s="2">
         <v>25</v>
       </c>
-      <c r="L24" s="6">
+      <c r="K24" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>678</v>
       </c>
@@ -13982,546 +13930,534 @@
         <v>681</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="K25" s="2">
+        <v>736</v>
+      </c>
+      <c r="J25" s="2">
         <v>9</v>
       </c>
-      <c r="L25" s="6">
+      <c r="K25" s="6">
         <v>100</v>
       </c>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="J26" s="2">
+        <v>55</v>
+      </c>
+      <c r="K26" s="6">
+        <v>55</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F27" s="4">
         <v>-0.71</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="H27" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="K26" s="2">
+      <c r="J27" s="2">
         <v>0</v>
       </c>
-      <c r="L26" s="6">
+      <c r="K27" s="6">
         <v>0</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M27" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="J28" s="2">
+        <v>6</v>
+      </c>
+      <c r="K28" s="6">
+        <v>6</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="2">
+        <v>16</v>
+      </c>
+      <c r="K29" s="6">
+        <v>16</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="J30" s="2">
+        <v>16</v>
+      </c>
+      <c r="K30" s="6">
+        <v>16</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="31" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="J31" s="2">
+        <v>20</v>
+      </c>
+      <c r="K31" s="6">
+        <v>20</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="J32" s="2">
+        <v>21</v>
+      </c>
+      <c r="K32" s="6">
+        <v>21</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="J33" s="2">
+        <v>40</v>
+      </c>
+      <c r="K33" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J34" s="2">
+        <v>25</v>
+      </c>
+      <c r="K34" s="6">
+        <v>25</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="144" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="2">
+        <v>28</v>
+      </c>
+      <c r="K35" s="6">
+        <v>28</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="K27" s="2">
-        <v>6</v>
-      </c>
-      <c r="L27" s="6">
-        <v>6</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28" s="2">
-        <v>16</v>
-      </c>
-      <c r="L28" s="6">
-        <v>16</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="K29" s="2">
-        <v>16</v>
-      </c>
-      <c r="L29" s="6">
-        <v>16</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="K30" s="2">
-        <v>20</v>
-      </c>
-      <c r="L30" s="6">
-        <v>20</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="K31" s="2">
-        <v>21</v>
-      </c>
-      <c r="L31" s="6">
-        <v>21</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="2">
+        <v>28</v>
+      </c>
+      <c r="K36" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="J37" s="2">
+        <v>28</v>
+      </c>
+      <c r="K37" s="6">
+        <v>28</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="E38" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="K32" s="2">
-        <v>40</v>
-      </c>
-      <c r="L32" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K33" s="2">
-        <v>25</v>
-      </c>
-      <c r="L33" s="6">
-        <v>25</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="2">
+      <c r="H38" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="2">
+        <v>83</v>
+      </c>
+      <c r="K38" s="6">
         <v>28</v>
       </c>
-      <c r="L34" s="6">
-        <v>28</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K35" s="2">
-        <v>28</v>
-      </c>
-      <c r="L35" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="K36" s="2">
-        <v>28</v>
-      </c>
-      <c r="L36" s="6">
-        <v>28</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K37" s="2">
-        <v>83</v>
-      </c>
-      <c r="L37" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="2">
-        <v>34</v>
-      </c>
-      <c r="L38" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
@@ -14533,7 +14469,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>13</v>
@@ -14542,103 +14478,94 @@
         <v>14</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="2">
+        <v>34</v>
+      </c>
+      <c r="K39" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="2">
+      <c r="H40" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="2">
         <v>34</v>
       </c>
-      <c r="L39" s="6">
+      <c r="K40" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I40" s="6" t="s">
+      <c r="H41" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="J41" s="2">
         <v>34</v>
       </c>
-      <c r="L40" s="6">
+      <c r="K41" s="6">
         <v>34</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2" t="s">
+      <c r="N41" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="2">
-        <v>34</v>
-      </c>
-      <c r="L41" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
@@ -14650,7 +14577,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>475</v>
+        <v>207</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>13</v>
@@ -14659,24 +14586,21 @@
         <v>14</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="2">
+      <c r="J42" s="2">
         <v>34</v>
       </c>
-      <c r="L42" s="6">
+      <c r="K42" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>597</v>
+        <v>474</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
@@ -14688,7 +14612,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>598</v>
+        <v>475</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>13</v>
@@ -14697,24 +14621,21 @@
         <v>14</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="2">
+      <c r="J43" s="2">
         <v>34</v>
       </c>
-      <c r="L43" s="6">
+      <c r="K43" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>9</v>
@@ -14726,7 +14647,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>13</v>
@@ -14735,337 +14656,319 @@
         <v>14</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="2">
+        <v>34</v>
+      </c>
+      <c r="K44" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K44" s="2">
+      <c r="H45" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="2">
         <v>34</v>
       </c>
-      <c r="L44" s="6">
+      <c r="K45" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I45" s="6" t="s">
+      <c r="H46" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I46" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="K45" s="2">
+      <c r="J46" s="2">
         <v>34</v>
       </c>
-      <c r="L45" s="6">
+      <c r="K46" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I46" s="6" t="s">
+      <c r="H47" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I47" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K46" s="2">
+      <c r="J47" s="2">
         <v>35</v>
       </c>
-      <c r="L46" s="6">
+      <c r="K47" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:14" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="K47" s="2">
+      <c r="H48" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="J48" s="2">
         <v>28</v>
       </c>
-      <c r="L47" s="6">
+      <c r="K48" s="6">
         <v>36</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2" t="s">
+      <c r="M48" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I48" s="6" t="s">
+      <c r="H49" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I49" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="K48" s="2">
+      <c r="J49" s="2">
         <v>38</v>
       </c>
-      <c r="L48" s="6">
+      <c r="K49" s="6">
         <v>38</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="201.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2" t="s">
+      <c r="L49" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="201.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="K49" s="2">
-        <v>33</v>
-      </c>
-      <c r="L49" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>441</v>
+        <v>10</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>634</v>
+        <v>543</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>544</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="J50" s="2">
+        <v>33</v>
+      </c>
+      <c r="K50" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="K50" s="2">
+      <c r="H51" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="J51" s="2">
         <v>45</v>
       </c>
-      <c r="L50" s="6">
+      <c r="K51" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:14" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I51" s="6" t="s">
+      <c r="H52" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I52" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="J51" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="K51" s="2">
+      <c r="J52" s="2">
         <v>40</v>
       </c>
-      <c r="L51" s="6">
+      <c r="K52" s="6">
         <v>40</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2" t="s">
+      <c r="L52" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="K52" s="2">
-        <v>96</v>
-      </c>
-      <c r="L52" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="201.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>9</v>
@@ -15077,616 +14980,577 @@
         <v>10</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>544</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>545</v>
+        <v>662</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="K53" s="2">
-        <v>33</v>
-      </c>
-      <c r="L53" s="6">
+        <v>702</v>
+      </c>
+      <c r="J53" s="2">
+        <v>96</v>
+      </c>
+      <c r="K53" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:14" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2" t="s">
-        <v>440</v>
+        <v>671</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>441</v>
+        <v>10</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="J54" s="2">
+        <v>33</v>
+      </c>
+      <c r="K54" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G55" s="4">
         <v>0.05</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="I54" s="6" t="s">
+      <c r="H55" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="J55" s="2">
+        <v>28</v>
+      </c>
+      <c r="K55" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="J56" s="2">
+        <v>43</v>
+      </c>
+      <c r="K56" s="6">
+        <v>43</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="J57" s="2">
+        <v>44</v>
+      </c>
+      <c r="K57" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="2">
+        <v>46</v>
+      </c>
+      <c r="K58" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I59" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="J54" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="K54" s="2">
+      <c r="J59" s="2">
+        <v>86</v>
+      </c>
+      <c r="K59" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="J60" s="2">
+        <v>47</v>
+      </c>
+      <c r="K60" s="6">
+        <v>47</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J61" s="2">
+        <v>49</v>
+      </c>
+      <c r="K61" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="J62" s="2">
+        <v>48</v>
+      </c>
+      <c r="K62" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="J63" s="2">
+        <v>54</v>
+      </c>
+      <c r="K63" s="6">
+        <v>50</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L54" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J64" s="2">
+        <v>50</v>
+      </c>
+      <c r="K64" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="C65" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="K55" s="2">
-        <v>43</v>
-      </c>
-      <c r="L55" s="6">
-        <v>43</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K56" s="2">
-        <v>44</v>
-      </c>
-      <c r="L56" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="D65" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K57" s="2">
-        <v>46</v>
-      </c>
-      <c r="L57" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="K58" s="2">
-        <v>86</v>
-      </c>
-      <c r="L58" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="K59" s="2">
-        <v>47</v>
-      </c>
-      <c r="L59" s="6">
-        <v>47</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K60" s="2">
-        <v>49</v>
-      </c>
-      <c r="L60" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="K61" s="2">
-        <v>48</v>
-      </c>
-      <c r="L61" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="E65" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J65" s="2">
+        <v>50</v>
+      </c>
+      <c r="K65" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="J66" s="2">
+        <v>50</v>
+      </c>
+      <c r="K66" s="6">
+        <v>50</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="K62" s="2">
-        <v>54</v>
-      </c>
-      <c r="L62" s="6">
-        <v>50</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K63" s="2">
-        <v>50</v>
-      </c>
-      <c r="L63" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="K64" s="2">
-        <v>50</v>
-      </c>
-      <c r="L64" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="K65" s="2">
-        <v>50</v>
-      </c>
-      <c r="L65" s="6">
-        <v>50</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="K66" s="2">
+      <c r="H67" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="J67" s="2">
         <v>24</v>
       </c>
-      <c r="L66" s="6">
+      <c r="K67" s="6">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K67" s="2">
-        <v>54</v>
-      </c>
-      <c r="L67" s="6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>337</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="J68" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K68" s="2">
-        <v>55</v>
-      </c>
-      <c r="L68" s="6">
-        <v>55</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J68" s="2">
+        <v>54</v>
+      </c>
+      <c r="K68" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2" t="s">
         <v>292</v>
       </c>
@@ -15709,22 +15573,19 @@
         <v>0.20949999999999999</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I69" s="6">
         <v>0.20949999999999999</v>
       </c>
-      <c r="J69" s="6">
-        <v>0.20949999999999999</v>
-      </c>
-      <c r="K69" s="2">
+      <c r="J69" s="2">
         <v>59</v>
       </c>
-      <c r="L69" s="6">
+      <c r="K69" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2" t="s">
         <v>512</v>
       </c>
@@ -15747,22 +15608,19 @@
         <v>83</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J70" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K70" s="2">
+      <c r="J70" s="2">
         <v>59</v>
       </c>
-      <c r="L70" s="6">
+      <c r="K70" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2" t="s">
         <v>67</v>
       </c>
@@ -15785,22 +15643,19 @@
         <v>72</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J71" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K71" s="2">
+      <c r="J71" s="2">
         <v>60</v>
       </c>
-      <c r="L71" s="6">
+      <c r="K71" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2" t="s">
         <v>608</v>
       </c>
@@ -15823,25 +15678,25 @@
         <v>611</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="K72" s="2">
+        <v>717</v>
+      </c>
+      <c r="J72" s="2">
         <v>49</v>
       </c>
-      <c r="L72" s="6">
+      <c r="K72" s="6">
         <v>60</v>
       </c>
-      <c r="M72" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="M72" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2" t="s">
         <v>40</v>
       </c>
@@ -15864,22 +15719,19 @@
         <v>45</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J73" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K73" s="2">
+      <c r="J73" s="2">
         <v>61</v>
       </c>
-      <c r="L73" s="6">
+      <c r="K73" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2" t="s">
         <v>300</v>
       </c>
@@ -15902,22 +15754,19 @@
         <v>303</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J74" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="K74" s="2">
+      <c r="J74" s="2">
         <v>61</v>
       </c>
-      <c r="L74" s="6">
+      <c r="K74" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:14" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2" t="s">
         <v>403</v>
       </c>
@@ -15940,22 +15789,19 @@
         <v>406</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="J75" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="K75" s="2">
+      <c r="J75" s="2">
         <v>61</v>
       </c>
-      <c r="L75" s="6">
+      <c r="K75" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2" t="s">
         <v>450</v>
       </c>
@@ -15978,22 +15824,19 @@
         <v>45</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J76" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K76" s="2">
+      <c r="J76" s="2">
         <v>61</v>
       </c>
-      <c r="L76" s="6">
+      <c r="K76" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2" t="s">
         <v>521</v>
       </c>
@@ -16016,22 +15859,19 @@
         <v>0.21</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I77" s="6">
         <v>20.946000000000002</v>
       </c>
-      <c r="J77" s="6">
-        <v>20.946000000000002</v>
-      </c>
-      <c r="K77" s="2">
+      <c r="J77" s="2">
         <v>77</v>
       </c>
-      <c r="L77" s="6">
+      <c r="K77" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2" t="s">
         <v>575</v>
       </c>
@@ -16054,22 +15894,19 @@
         <v>303</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="J78" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="K78" s="2">
+      <c r="J78" s="2">
         <v>61</v>
       </c>
-      <c r="L78" s="6">
+      <c r="K78" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2" t="s">
         <v>665</v>
       </c>
@@ -16092,22 +15929,19 @@
         <v>133</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J79" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K79" s="2">
+      <c r="J79" s="2">
         <v>61</v>
       </c>
-      <c r="L79" s="6">
+      <c r="K79" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2" t="s">
         <v>338</v>
       </c>
@@ -16130,22 +15964,19 @@
         <v>342</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="J80" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="K80" s="2">
+      <c r="J80" s="2">
         <v>62</v>
       </c>
-      <c r="L80" s="6">
+      <c r="K80" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2" t="s">
         <v>461</v>
       </c>
@@ -16168,22 +15999,19 @@
         <v>24</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J81" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K81" s="2">
+      <c r="J81" s="2">
         <v>46</v>
       </c>
-      <c r="L81" s="6">
+      <c r="K81" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2" t="s">
         <v>111</v>
       </c>
@@ -16206,22 +16034,19 @@
         <v>114</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J82" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K82" s="2">
+      <c r="J82" s="2">
         <v>63</v>
       </c>
-      <c r="L82" s="6">
+      <c r="K82" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2" t="s">
         <v>530</v>
       </c>
@@ -16244,22 +16069,19 @@
         <v>280</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I83" s="6">
         <v>280</v>
       </c>
-      <c r="J83" s="6">
-        <v>280</v>
-      </c>
-      <c r="K83" s="2">
+      <c r="J83" s="2">
         <v>64</v>
       </c>
-      <c r="L83" s="6">
+      <c r="K83" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2" t="s">
         <v>78</v>
       </c>
@@ -16282,22 +16104,19 @@
         <v>83</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J84" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K84" s="2">
+      <c r="J84" s="2">
         <v>65</v>
       </c>
-      <c r="L84" s="6">
+      <c r="K84" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2" t="s">
         <v>189</v>
       </c>
@@ -16320,22 +16139,19 @@
         <v>83</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J85" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K85" s="2">
+      <c r="J85" s="2">
         <v>65</v>
       </c>
-      <c r="L85" s="6">
+      <c r="K85" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2" t="s">
         <v>197</v>
       </c>
@@ -16358,22 +16174,19 @@
         <v>83</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J86" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K86" s="2">
+      <c r="J86" s="2">
         <v>65</v>
       </c>
-      <c r="L86" s="6">
+      <c r="K86" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2" t="s">
         <v>362</v>
       </c>
@@ -16396,22 +16209,19 @@
         <v>72</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J87" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K87" s="2">
+      <c r="J87" s="2">
         <v>65</v>
       </c>
-      <c r="L87" s="6">
+      <c r="K87" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:11" ht="216" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
         <v>284</v>
       </c>
@@ -16434,22 +16244,19 @@
         <v>146</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J88" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="K88" s="2">
+      <c r="J88" s="2">
         <v>67</v>
       </c>
-      <c r="L88" s="6">
+      <c r="K88" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
         <v>487</v>
       </c>
@@ -16472,22 +16279,19 @@
         <v>307</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="J89" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K89" s="2">
+      <c r="J89" s="2">
         <v>67</v>
       </c>
-      <c r="L89" s="6">
+      <c r="K89" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2" t="s">
         <v>167</v>
       </c>
@@ -16510,22 +16314,19 @@
         <v>171</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J90" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K90" s="2">
+      <c r="J90" s="2">
         <v>68</v>
       </c>
-      <c r="L90" s="6">
+      <c r="K90" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:11" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2" t="s">
         <v>232</v>
       </c>
@@ -16548,22 +16349,19 @@
         <v>236</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="K91" s="2">
+        <v>718</v>
+      </c>
+      <c r="J91" s="2">
         <v>74</v>
       </c>
-      <c r="L91" s="6">
+      <c r="K91" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2" t="s">
         <v>304</v>
       </c>
@@ -16586,22 +16384,19 @@
         <v>307</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="J92" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K92" s="2">
+      <c r="J92" s="2">
         <v>68</v>
       </c>
-      <c r="L92" s="6">
+      <c r="K92" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2" t="s">
         <v>546</v>
       </c>
@@ -16624,22 +16419,19 @@
         <v>171</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J93" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K93" s="2">
+      <c r="J93" s="2">
         <v>68</v>
       </c>
-      <c r="L93" s="6">
+      <c r="K93" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2" t="s">
         <v>620</v>
       </c>
@@ -16662,22 +16454,19 @@
         <v>307</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="J94" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K94" s="2">
+      <c r="J94" s="2">
         <v>68</v>
       </c>
-      <c r="L94" s="6">
+      <c r="K94" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:11" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2" t="s">
         <v>295</v>
       </c>
@@ -16700,22 +16489,19 @@
         <v>299</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J95" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="K95" s="2">
+      <c r="J95" s="2">
         <v>69</v>
       </c>
-      <c r="L95" s="6">
+      <c r="K95" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2" t="s">
         <v>330</v>
       </c>
@@ -16738,22 +16524,19 @@
         <v>307</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="J96" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="K96" s="2">
+      <c r="J96" s="2">
         <v>69</v>
       </c>
-      <c r="L96" s="6">
+      <c r="K96" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2" t="s">
         <v>385</v>
       </c>
@@ -16776,22 +16559,19 @@
         <v>171</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J97" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K97" s="2">
+      <c r="J97" s="2">
         <v>69</v>
       </c>
-      <c r="L97" s="6">
+      <c r="K97" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="129.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:14" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2" t="s">
         <v>571</v>
       </c>
@@ -16814,22 +16594,19 @@
         <v>299</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="J98" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="K98" s="2">
+      <c r="J98" s="2">
         <v>69</v>
       </c>
-      <c r="L98" s="6">
+      <c r="K98" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2" t="s">
         <v>208</v>
       </c>
@@ -16852,22 +16629,19 @@
         <v>211</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J99" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K99" s="2">
+      <c r="J99" s="2">
         <v>70</v>
       </c>
-      <c r="L99" s="6">
+      <c r="K99" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2" t="s">
         <v>548</v>
       </c>
@@ -16890,22 +16664,19 @@
         <v>551</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="J100" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="K100" s="2">
+      <c r="J100" s="2">
         <v>71</v>
       </c>
-      <c r="L100" s="6">
+      <c r="K100" s="6">
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2" t="s">
         <v>618</v>
       </c>
@@ -16928,25 +16699,25 @@
         <v>325</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="J101" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="K101" s="2">
+        <v>722</v>
+      </c>
+      <c r="J101" s="2">
         <v>86</v>
       </c>
-      <c r="L101" s="6">
+      <c r="K101" s="6">
         <v>72</v>
       </c>
-      <c r="M101" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="M101" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
         <v>251</v>
       </c>
@@ -16969,22 +16740,19 @@
         <v>255</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="J102" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="K102" s="2">
+      <c r="J102" s="2">
         <v>73</v>
       </c>
-      <c r="L102" s="6">
+      <c r="K102" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2" t="s">
         <v>364</v>
       </c>
@@ -17007,22 +16775,19 @@
         <v>325</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="K103" s="2">
+        <v>771</v>
+      </c>
+      <c r="J103" s="2">
         <v>89</v>
       </c>
-      <c r="L103" s="6">
+      <c r="K103" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
         <v>507</v>
       </c>
@@ -17045,22 +16810,19 @@
         <v>511</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="J104" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="K104" s="2">
+      <c r="J104" s="2">
         <v>74</v>
       </c>
-      <c r="L104" s="6">
+      <c r="K104" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
         <v>400</v>
       </c>
@@ -17083,22 +16845,19 @@
         <v>402</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="J105" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="K105" s="2">
+      <c r="J105" s="2">
         <v>75</v>
       </c>
-      <c r="L105" s="6">
+      <c r="K105" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:14" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
         <v>484</v>
       </c>
@@ -17121,22 +16880,19 @@
         <v>133</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J106" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K106" s="2">
+      <c r="J106" s="2">
         <v>75</v>
       </c>
-      <c r="L106" s="6">
+      <c r="K106" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
         <v>599</v>
       </c>
@@ -17159,22 +16915,19 @@
         <v>83</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K107" s="2">
+      <c r="J107" s="2">
         <v>75</v>
       </c>
-      <c r="L107" s="6">
+      <c r="K107" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
         <v>46</v>
       </c>
@@ -17197,22 +16950,19 @@
         <v>51</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J108" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K108" s="2">
+      <c r="J108" s="2">
         <v>76</v>
       </c>
-      <c r="L108" s="6">
+      <c r="K108" s="6">
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
         <v>479</v>
       </c>
@@ -17235,22 +16985,19 @@
         <v>51</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J109" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K109" s="2">
+      <c r="J109" s="2">
         <v>76</v>
       </c>
-      <c r="L109" s="6">
+      <c r="K109" s="6">
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:14" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
         <v>528</v>
       </c>
@@ -17273,22 +17020,19 @@
         <v>0.21</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I110" s="6">
         <v>0.21</v>
       </c>
-      <c r="J110" s="6">
-        <v>0.21</v>
-      </c>
-      <c r="K110" s="2">
+      <c r="J110" s="2">
         <v>77</v>
       </c>
-      <c r="L110" s="6">
+      <c r="K110" s="6">
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2" t="s">
         <v>604</v>
       </c>
@@ -17311,22 +17055,19 @@
         <v>607</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="J111" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="K111" s="2">
+      <c r="J111" s="2">
         <v>77</v>
       </c>
-      <c r="L111" s="6">
+      <c r="K111" s="6">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:14" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2" t="s">
         <v>134</v>
       </c>
@@ -17349,22 +17090,19 @@
         <v>138</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J112" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K112" s="2">
+      <c r="J112" s="2">
         <v>78</v>
       </c>
-      <c r="L112" s="6">
+      <c r="K112" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2" t="s">
         <v>181</v>
       </c>
@@ -17387,22 +17125,19 @@
         <v>186</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I113" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J113" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="K113" s="2">
+      <c r="J113" s="2">
         <v>79</v>
       </c>
-      <c r="L113" s="6">
+      <c r="K113" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2" t="s">
         <v>568</v>
       </c>
@@ -17425,22 +17160,19 @@
         <v>537</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="J114" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="K114" s="2">
+      <c r="J114" s="2">
         <v>79</v>
       </c>
-      <c r="L114" s="6">
+      <c r="K114" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2" t="s">
         <v>212</v>
       </c>
@@ -17463,22 +17195,19 @@
         <v>215</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J115" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="K115" s="2">
+      <c r="J115" s="2">
         <v>80</v>
       </c>
-      <c r="L115" s="6">
+      <c r="K115" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2" t="s">
         <v>445</v>
       </c>
@@ -17501,22 +17230,19 @@
         <v>449</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="J116" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="K116" s="2">
+      <c r="J116" s="2">
         <v>80</v>
       </c>
-      <c r="L116" s="6">
+      <c r="K116" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:11" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2" t="s">
         <v>629</v>
       </c>
@@ -17539,22 +17265,19 @@
         <v>632</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="J117" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="K117" s="2">
+      <c r="J117" s="2">
         <v>80</v>
       </c>
-      <c r="L117" s="6">
+      <c r="K117" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2" t="s">
         <v>675</v>
       </c>
@@ -17577,22 +17300,19 @@
         <v>215</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="J118" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="K118" s="2">
+      <c r="J118" s="2">
         <v>80</v>
       </c>
-      <c r="L118" s="6">
+      <c r="K118" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:11" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2" t="s">
         <v>59</v>
       </c>
@@ -17615,22 +17335,19 @@
         <v>64</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I119" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J119" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K119" s="2">
+      <c r="J119" s="2">
         <v>81</v>
       </c>
-      <c r="L119" s="6">
+      <c r="K119" s="6">
         <v>81</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2" t="s">
         <v>247</v>
       </c>
@@ -17653,22 +17370,19 @@
         <v>250</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="J120" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="K120" s="2">
+      <c r="J120" s="2">
         <v>81</v>
       </c>
-      <c r="L120" s="6">
+      <c r="K120" s="6">
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2" t="s">
         <v>360</v>
       </c>
@@ -17691,22 +17405,19 @@
         <v>96</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J121" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K121" s="2">
+      <c r="J121" s="2">
         <v>81</v>
       </c>
-      <c r="L121" s="6">
+      <c r="K121" s="6">
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2" t="s">
         <v>490</v>
       </c>
@@ -17729,22 +17440,19 @@
         <v>104</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J122" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K122" s="2">
+      <c r="J122" s="2">
         <v>81</v>
       </c>
-      <c r="L122" s="6">
+      <c r="K122" s="6">
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2" t="s">
         <v>523</v>
       </c>
@@ -17767,22 +17475,19 @@
         <v>500</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="J123" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="K123" s="2">
+        <v>725</v>
+      </c>
+      <c r="J123" s="2">
         <v>83</v>
       </c>
-      <c r="L123" s="6">
+      <c r="K123" s="6">
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2" t="s">
         <v>581</v>
       </c>
@@ -17805,22 +17510,19 @@
         <v>250</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="J124" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="K124" s="2">
+      <c r="J124" s="2">
         <v>81</v>
       </c>
-      <c r="L124" s="6">
+      <c r="K124" s="6">
         <v>81</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2" t="s">
         <v>652</v>
       </c>
@@ -17843,22 +17545,19 @@
         <v>500</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="J125" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="K125" s="2">
+        <v>725</v>
+      </c>
+      <c r="J125" s="2">
         <v>83</v>
       </c>
-      <c r="L125" s="6">
+      <c r="K125" s="6">
         <v>81</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2" t="s">
         <v>225</v>
       </c>
@@ -17881,22 +17580,19 @@
         <v>90</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J126" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K126" s="2">
+      <c r="J126" s="2">
         <v>82</v>
       </c>
-      <c r="L126" s="6">
+      <c r="K126" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2" t="s">
         <v>333</v>
       </c>
@@ -17919,22 +17615,19 @@
         <v>337</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I127" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="J127" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K127" s="2">
+      <c r="J127" s="2">
         <v>82</v>
       </c>
-      <c r="L127" s="6">
+      <c r="K127" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:11" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2" t="s">
         <v>427</v>
       </c>
@@ -17957,22 +17650,19 @@
         <v>430</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="J128" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="K128" s="2">
+      <c r="J128" s="2">
         <v>82</v>
       </c>
-      <c r="L128" s="6">
+      <c r="K128" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2" t="s">
         <v>555</v>
       </c>
@@ -17995,22 +17685,19 @@
         <v>337</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="J129" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K129" s="2">
+      <c r="J129" s="2">
         <v>82</v>
       </c>
-      <c r="L129" s="6">
+      <c r="K129" s="6">
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:11" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2" t="s">
         <v>501</v>
       </c>
@@ -18033,22 +17720,19 @@
         <v>504</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="J130" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="K130" s="2">
+      <c r="J130" s="2">
         <v>83</v>
       </c>
-      <c r="L130" s="6">
+      <c r="K130" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2" t="s">
         <v>89</v>
       </c>
@@ -18071,22 +17755,19 @@
         <v>94</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I131" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J131" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K131" s="2">
+      <c r="J131" s="2">
         <v>84</v>
       </c>
-      <c r="L131" s="6">
+      <c r="K131" s="6">
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2" t="s">
         <v>261</v>
       </c>
@@ -18109,22 +17790,19 @@
         <v>94</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I132" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J132" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K132" s="2">
+      <c r="J132" s="2">
         <v>84</v>
       </c>
-      <c r="L132" s="6">
+      <c r="K132" s="6">
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:11" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2" t="s">
         <v>387</v>
       </c>
@@ -18147,22 +17825,19 @@
         <v>390</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="J133" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="K133" s="2">
+        <v>728</v>
+      </c>
+      <c r="J133" s="2">
         <v>93</v>
       </c>
-      <c r="L133" s="6">
+      <c r="K133" s="6">
         <v>84</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2" t="s">
         <v>357</v>
       </c>
@@ -18185,22 +17860,19 @@
         <v>129</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J134" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K134" s="2">
+      <c r="J134" s="2">
         <v>85</v>
       </c>
-      <c r="L134" s="6">
+      <c r="K134" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2" t="s">
         <v>143</v>
       </c>
@@ -18223,22 +17895,19 @@
         <v>146</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="K135" s="2">
+        <v>730</v>
+      </c>
+      <c r="J135" s="2">
         <v>90</v>
       </c>
-      <c r="L135" s="6">
+      <c r="K135" s="6">
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:11" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2" t="s">
         <v>457</v>
       </c>
@@ -18261,22 +17930,19 @@
         <v>460</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I136" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J136" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K136" s="2">
+      <c r="J136" s="2">
         <v>75</v>
       </c>
-      <c r="L136" s="6">
+      <c r="K136" s="6">
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2" t="s">
         <v>493</v>
       </c>
@@ -18299,22 +17965,19 @@
         <v>496</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="J137" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="K137" s="2">
+        <v>729</v>
+      </c>
+      <c r="J137" s="2">
         <v>94</v>
       </c>
-      <c r="L137" s="6">
+      <c r="K137" s="6">
         <v>87</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2" t="s">
         <v>84</v>
       </c>
@@ -18337,22 +18000,19 @@
         <v>88</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="K138" s="2">
+        <v>725</v>
+      </c>
+      <c r="J138" s="2">
         <v>77</v>
       </c>
-      <c r="L138" s="6">
+      <c r="K138" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:11" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2" t="s">
         <v>120</v>
       </c>
@@ -18375,22 +18035,19 @@
         <v>123</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I139" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="J139" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K139" s="2">
+      <c r="J139" s="2">
         <v>88</v>
       </c>
-      <c r="L139" s="6">
+      <c r="K139" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2" t="s">
         <v>130</v>
       </c>
@@ -18413,22 +18070,19 @@
         <v>133</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J140" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K140" s="2">
+      <c r="J140" s="2">
         <v>88</v>
       </c>
-      <c r="L140" s="6">
+      <c r="K140" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2" t="s">
         <v>317</v>
       </c>
@@ -18451,22 +18105,19 @@
         <v>133</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J141" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="K141" s="2">
+      <c r="J141" s="2">
         <v>88</v>
       </c>
-      <c r="L141" s="6">
+      <c r="K141" s="6">
         <v>88</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2" t="s">
         <v>187</v>
       </c>
@@ -18489,22 +18140,19 @@
         <v>0.78</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I142" s="6">
         <v>0.78</v>
       </c>
-      <c r="J142" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="K142" s="2">
+      <c r="J142" s="2">
         <v>89</v>
       </c>
-      <c r="L142" s="6">
+      <c r="K142" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2" t="s">
         <v>288</v>
       </c>
@@ -18527,22 +18175,19 @@
         <v>291</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J143" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K143" s="2">
+      <c r="J143" s="2">
         <v>89</v>
       </c>
-      <c r="L143" s="6">
+      <c r="K143" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2" t="s">
         <v>374</v>
       </c>
@@ -18565,22 +18210,19 @@
         <v>291</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J144" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K144" s="2">
+      <c r="J144" s="2">
         <v>89</v>
       </c>
-      <c r="L144" s="6">
+      <c r="K144" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="2" t="s">
         <v>431</v>
       </c>
@@ -18603,22 +18245,19 @@
         <v>291</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I145" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J145" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K145" s="2">
+      <c r="J145" s="2">
         <v>89</v>
       </c>
-      <c r="L145" s="6">
+      <c r="K145" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="2" t="s">
         <v>464</v>
       </c>
@@ -18641,22 +18280,19 @@
         <v>291</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I146" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J146" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K146" s="2">
+      <c r="J146" s="2">
         <v>89</v>
       </c>
-      <c r="L146" s="6">
+      <c r="K146" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2" t="s">
         <v>505</v>
       </c>
@@ -18679,22 +18315,19 @@
         <v>291</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J147" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K147" s="2">
+      <c r="J147" s="2">
         <v>89</v>
       </c>
-      <c r="L147" s="6">
+      <c r="K147" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2" t="s">
         <v>73</v>
       </c>
@@ -18717,22 +18350,19 @@
         <v>77</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J148" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K148" s="2">
+      <c r="J148" s="2">
         <v>78</v>
       </c>
-      <c r="L148" s="6">
+      <c r="K148" s="6">
         <v>92</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2" t="s">
         <v>591</v>
       </c>
@@ -18755,22 +18385,19 @@
         <v>594</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I149" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="J149" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="K149" s="2">
+      <c r="J149" s="2">
         <v>92</v>
       </c>
-      <c r="L149" s="6">
+      <c r="K149" s="6">
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="2" t="s">
         <v>192</v>
       </c>
@@ -18793,22 +18420,19 @@
         <v>196</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="J150" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="K150" s="2">
+      <c r="J150" s="2">
         <v>94</v>
       </c>
-      <c r="L150" s="6">
+      <c r="K150" s="6">
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="2" t="s">
         <v>279</v>
       </c>
@@ -18831,22 +18455,19 @@
         <v>283</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="J151" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="K151" s="2">
+      <c r="J151" s="2">
         <v>96</v>
       </c>
-      <c r="L151" s="6">
+      <c r="K151" s="6">
         <v>96</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="2" t="s">
         <v>381</v>
       </c>
@@ -18869,22 +18490,19 @@
         <v>384</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I152" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="J152" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="K152" s="2">
+      <c r="J152" s="2">
         <v>96</v>
       </c>
-      <c r="L152" s="6">
+      <c r="K152" s="6">
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2" t="s">
         <v>433</v>
       </c>
@@ -18907,22 +18525,19 @@
         <v>337</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I153" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="J153" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K153" s="2">
+      <c r="J153" s="2">
         <v>96</v>
       </c>
-      <c r="L153" s="6">
+      <c r="K153" s="6">
         <v>96</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="2" t="s">
         <v>353</v>
       </c>
@@ -18945,22 +18560,19 @@
         <v>100</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I154" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J154" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K154" s="2">
+      <c r="J154" s="2">
         <v>97</v>
       </c>
-      <c r="L154" s="6">
+      <c r="K154" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:11" ht="144" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="2" t="s">
         <v>497</v>
       </c>
@@ -18983,22 +18595,19 @@
         <v>500</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I155" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J155" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K155" s="2">
+      <c r="J155" s="2">
         <v>99</v>
       </c>
-      <c r="L155" s="6">
+      <c r="K155" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="2" t="s">
         <v>538</v>
       </c>
@@ -19021,22 +18630,19 @@
         <v>541</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="J156" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="K156" s="2">
+        <v>725</v>
+      </c>
+      <c r="J156" s="2">
         <v>97</v>
       </c>
-      <c r="L156" s="6">
+      <c r="K156" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2" t="s">
         <v>101</v>
       </c>
@@ -19059,22 +18665,19 @@
         <v>104</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I157" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="J157" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="K157" s="2">
+      <c r="J157" s="2">
         <v>99</v>
       </c>
-      <c r="L157" s="6">
+      <c r="K157" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:11" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="2" t="s">
         <v>391</v>
       </c>
@@ -19097,22 +18700,19 @@
         <v>393</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I158" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="J158" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="K158" s="2">
+      <c r="J158" s="2">
         <v>99</v>
       </c>
-      <c r="L158" s="6">
+      <c r="K158" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="2" t="s">
         <v>21</v>
       </c>
@@ -19135,22 +18735,19 @@
         <v>26</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I159" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J159" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K159" s="2">
+      <c r="J159" s="2">
         <v>100</v>
       </c>
-      <c r="L159" s="6">
+      <c r="K159" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="2" t="s">
         <v>27</v>
       </c>
@@ -19173,22 +18770,19 @@
         <v>32</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I160" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J160" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K160" s="2">
+      <c r="J160" s="2">
         <v>100</v>
       </c>
-      <c r="L160" s="6">
+      <c r="K160" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2" t="s">
         <v>52</v>
       </c>
@@ -19211,22 +18805,19 @@
         <v>58</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I161" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J161" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K161" s="2">
+      <c r="J161" s="2">
         <v>100</v>
       </c>
-      <c r="L161" s="6">
+      <c r="K161" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2" t="s">
         <v>124</v>
       </c>
@@ -19249,22 +18840,19 @@
         <v>129</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I162" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J162" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K162" s="2">
+      <c r="J162" s="2">
         <v>100</v>
       </c>
-      <c r="L162" s="6">
+      <c r="K162" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:11" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="2" t="s">
         <v>155</v>
       </c>
@@ -19287,22 +18875,19 @@
         <v>158</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I163" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="J163" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="K163" s="2">
+      <c r="J163" s="2">
         <v>100</v>
       </c>
-      <c r="L163" s="6">
+      <c r="K163" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="2" t="s">
         <v>172</v>
       </c>
@@ -19325,22 +18910,19 @@
         <v>175</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I164" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="J164" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="K164" s="2">
+      <c r="J164" s="2">
         <v>100</v>
       </c>
-      <c r="L164" s="6">
+      <c r="K164" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="2" t="s">
         <v>237</v>
       </c>
@@ -19363,22 +18945,19 @@
         <v>239</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J165" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="K165" s="2">
+      <c r="J165" s="2">
         <v>100</v>
       </c>
-      <c r="L165" s="6">
+      <c r="K165" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="2" t="s">
         <v>243</v>
       </c>
@@ -19401,22 +18980,19 @@
         <v>246</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I166" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="J166" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="K166" s="2">
+      <c r="J166" s="2">
         <v>100</v>
       </c>
-      <c r="L166" s="6">
+      <c r="K166" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="2" t="s">
         <v>308</v>
       </c>
@@ -19439,22 +19015,19 @@
         <v>312</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="J167" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="K167" s="2">
+      <c r="J167" s="2">
         <v>100</v>
       </c>
-      <c r="L167" s="6">
+      <c r="K167" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="2" t="s">
         <v>313</v>
       </c>
@@ -19477,22 +19050,19 @@
         <v>316</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="J168" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="K168" s="2">
+      <c r="J168" s="2">
         <v>100</v>
       </c>
-      <c r="L168" s="6">
+      <c r="K168" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="2" t="s">
         <v>319</v>
       </c>
@@ -19515,22 +19085,19 @@
         <v>291</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I169" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J169" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K169" s="2">
+      <c r="J169" s="2">
         <v>100</v>
       </c>
-      <c r="L169" s="6">
+      <c r="K169" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="2" t="s">
         <v>350</v>
       </c>
@@ -19553,22 +19120,19 @@
         <v>41</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J170" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K170" s="2">
+      <c r="J170" s="2">
         <v>100</v>
       </c>
-      <c r="L170" s="6">
+      <c r="K170" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="2" t="s">
         <v>410</v>
       </c>
@@ -19591,22 +19155,19 @@
         <v>413</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I171" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="J171" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="K171" s="2">
+      <c r="J171" s="2">
         <v>100</v>
       </c>
-      <c r="L171" s="6">
+      <c r="K171" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:11" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="2" t="s">
         <v>414</v>
       </c>
@@ -19629,22 +19190,19 @@
         <v>417</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="J172" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="K172" s="2">
+        <v>737</v>
+      </c>
+      <c r="J172" s="2">
         <v>44</v>
       </c>
-      <c r="L172" s="6">
+      <c r="K172" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="2" t="s">
         <v>453</v>
       </c>
@@ -19667,22 +19225,19 @@
         <v>291</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I173" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J173" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K173" s="2">
+      <c r="J173" s="2">
         <v>100</v>
       </c>
-      <c r="L173" s="6">
+      <c r="K173" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="2" t="s">
         <v>466</v>
       </c>
@@ -19705,22 +19260,19 @@
         <v>291</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I174" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J174" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K174" s="2">
+      <c r="J174" s="2">
         <v>100</v>
       </c>
-      <c r="L174" s="6">
+      <c r="K174" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="2" t="s">
         <v>476</v>
       </c>
@@ -19743,22 +19295,19 @@
         <v>51</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I175" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J175" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K175" s="2">
+      <c r="J175" s="2">
         <v>100</v>
       </c>
-      <c r="L175" s="6">
+      <c r="K175" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="2" t="s">
         <v>515</v>
       </c>
@@ -19781,22 +19330,19 @@
         <v>517</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I176" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="J176" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="K176" s="2">
+      <c r="J176" s="2">
         <v>100</v>
       </c>
-      <c r="L176" s="6">
+      <c r="K176" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="2" t="s">
         <v>518</v>
       </c>
@@ -19819,22 +19365,19 @@
         <v>119</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I177" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J177" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K177" s="2">
+      <c r="J177" s="2">
         <v>100</v>
       </c>
-      <c r="L177" s="6">
+      <c r="K177" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="2" t="s">
         <v>526</v>
       </c>
@@ -19857,22 +19400,19 @@
         <v>129</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I178" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J178" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K178" s="2">
+      <c r="J178" s="2">
         <v>100</v>
       </c>
-      <c r="L178" s="6">
+      <c r="K178" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="2" t="s">
         <v>533</v>
       </c>
@@ -19895,22 +19435,19 @@
         <v>537</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I179" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="J179" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="K179" s="2">
+      <c r="J179" s="2">
         <v>100</v>
       </c>
-      <c r="L179" s="6">
+      <c r="K179" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="2" t="s">
         <v>557</v>
       </c>
@@ -19933,22 +19470,19 @@
         <v>560</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I180" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="J180" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="K180" s="2">
+      <c r="J180" s="2">
         <v>100</v>
       </c>
-      <c r="L180" s="6">
+      <c r="K180" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="2" t="s">
         <v>563</v>
       </c>
@@ -19971,22 +19505,19 @@
         <v>567</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I181" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="J181" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="K181" s="2">
+      <c r="J181" s="2">
         <v>100</v>
       </c>
-      <c r="L181" s="6">
+      <c r="K181" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="2" t="s">
         <v>573</v>
       </c>
@@ -20009,22 +19540,19 @@
         <v>337</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I182" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="J182" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="K182" s="2">
+      <c r="J182" s="2">
         <v>100</v>
       </c>
-      <c r="L182" s="6">
+      <c r="K182" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="2" t="s">
         <v>595</v>
       </c>
@@ -20047,22 +19575,19 @@
         <v>129</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I183" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="J183" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K183" s="2">
+      <c r="J183" s="2">
         <v>100</v>
       </c>
-      <c r="L183" s="6">
+      <c r="K183" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="2" t="s">
         <v>614</v>
       </c>
@@ -20085,22 +19610,19 @@
         <v>617</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I184" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="J184" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="K184" s="2">
+      <c r="J184" s="2">
         <v>100</v>
       </c>
-      <c r="L184" s="6">
+      <c r="K184" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="2" t="s">
         <v>622</v>
       </c>
@@ -20123,22 +19645,19 @@
         <v>624</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I185" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="J185" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="K185" s="2">
+      <c r="J185" s="2">
         <v>100</v>
       </c>
-      <c r="L185" s="6">
+      <c r="K185" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="2" t="s">
         <v>648</v>
       </c>
@@ -20161,22 +19680,19 @@
         <v>651</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I186" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="J186" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="K186" s="2">
+      <c r="J186" s="2">
         <v>100</v>
       </c>
-      <c r="L186" s="6">
+      <c r="K186" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="2" t="s">
         <v>663</v>
       </c>
@@ -20199,22 +19715,19 @@
         <v>291</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I187" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J187" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K187" s="2">
+      <c r="J187" s="2">
         <v>100</v>
       </c>
-      <c r="L187" s="6">
+      <c r="K187" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="2" t="s">
         <v>673</v>
       </c>
@@ -20237,22 +19750,19 @@
         <v>291</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I188" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J188" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K188" s="2">
+      <c r="J188" s="2">
         <v>100</v>
       </c>
-      <c r="L188" s="6">
+      <c r="K188" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="2" t="s">
         <v>682</v>
       </c>
@@ -20275,22 +19785,19 @@
         <v>291</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I189" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J189" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="K189" s="2">
+      <c r="J189" s="2">
         <v>100</v>
       </c>
-      <c r="L189" s="6">
+      <c r="K189" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:11" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="2" t="s">
         <v>684</v>
       </c>
@@ -20313,25 +19820,22 @@
         <v>689</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I190" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="J190" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="K190" s="2">
+      <c r="J190" s="2">
         <v>100</v>
       </c>
-      <c r="L190" s="6">
+      <c r="K190" s="6">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M193">
-    <sortCondition descending="1" ref="H2:H193"/>
-    <sortCondition ref="L2:L193"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N190">
+    <sortCondition descending="1" ref="H2:H190"/>
+    <sortCondition ref="K2:K190"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
